--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.70777637961965</v>
+        <v>88.87272038624086</v>
       </c>
       <c r="D2" t="n">
-        <v>7.145679506635222</v>
+        <v>6.927772963853602</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.33029899218606</v>
+        <v>89.53161417665859</v>
       </c>
       <c r="D3" t="n">
-        <v>8.002031262115425</v>
+        <v>6.196068589111237</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.34460351756682</v>
+        <v>87.1679170358496</v>
       </c>
       <c r="D4" t="n">
-        <v>7.349550745633086</v>
+        <v>7.448186140008715</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.32837550093416</v>
+        <v>87.50278790836657</v>
       </c>
       <c r="D5" t="n">
-        <v>8.360371248307342</v>
+        <v>7.863674890507423</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.25272106554857</v>
+        <v>86.30545137788617</v>
       </c>
       <c r="D6" t="n">
-        <v>8.362744095654705</v>
+        <v>6.700342080615485</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.01159376182216</v>
+        <v>83.25590935990147</v>
       </c>
       <c r="D7" t="n">
-        <v>8.317123304503696</v>
+        <v>7.708600874294633</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.02849359084342</v>
+        <v>85.7743267012448</v>
       </c>
       <c r="D8" t="n">
-        <v>6.954189797015324</v>
+        <v>7.042510262338068</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.58180136981791</v>
+        <v>82.45338643242754</v>
       </c>
       <c r="D9" t="n">
-        <v>7.999405912631365</v>
+        <v>8.605947600208186</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.45084195016383</v>
+        <v>81.44459875736305</v>
       </c>
       <c r="D10" t="n">
-        <v>7.489120566684611</v>
+        <v>6.684631674354807</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.37103439023551</v>
+        <v>80.78449308438681</v>
       </c>
       <c r="D11" t="n">
-        <v>8.499008673464653</v>
+        <v>7.697025815932492</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.75360866912015</v>
+        <v>80.31222424421055</v>
       </c>
       <c r="D12" t="n">
-        <v>7.681194254856217</v>
+        <v>8.413607636866061</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.47683282596002</v>
+        <v>78.53446325515891</v>
       </c>
       <c r="D13" t="n">
-        <v>7.608244391934146</v>
+        <v>7.464744202971321</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.05284347485957</v>
+        <v>79.39931153447561</v>
       </c>
       <c r="D14" t="n">
-        <v>6.861122019019744</v>
+        <v>7.410192519476917</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.87840372045297</v>
+        <v>76.35072690816774</v>
       </c>
       <c r="D15" t="n">
-        <v>7.867766855791139</v>
+        <v>7.214848972094948</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.46970145311198</v>
+        <v>75.32197841704621</v>
       </c>
       <c r="D16" t="n">
-        <v>8.186056829434113</v>
+        <v>7.248024330150261</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.75694718639242</v>
+        <v>76.04983852138317</v>
       </c>
       <c r="D17" t="n">
-        <v>6.601751270786011</v>
+        <v>6.939737761654166</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.92718133604313</v>
+        <v>74.68125458694811</v>
       </c>
       <c r="D18" t="n">
-        <v>8.139719907878401</v>
+        <v>7.857134636350761</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.73256191883162</v>
+        <v>74.02825303776498</v>
       </c>
       <c r="D19" t="n">
-        <v>7.697013907435534</v>
+        <v>7.707135207089395</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.04636833582664</v>
+        <v>73.09493062104237</v>
       </c>
       <c r="D20" t="n">
-        <v>8.446670695405636</v>
+        <v>7.385693126529477</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.57460845137844</v>
+        <v>71.74897471159645</v>
       </c>
       <c r="D21" t="n">
-        <v>7.400832037887584</v>
+        <v>7.580502813493834</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.21121469861448</v>
+        <v>68.35246647832946</v>
       </c>
       <c r="D22" t="n">
-        <v>8.062318330002796</v>
+        <v>7.864840648452168</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.39779817340636</v>
+        <v>68.82844896906519</v>
       </c>
       <c r="D23" t="n">
-        <v>7.570605613307428</v>
+        <v>7.263772099087711</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.30009114773441</v>
+        <v>67.34387137566227</v>
       </c>
       <c r="D24" t="n">
-        <v>8.721489323076078</v>
+        <v>6.991544567090915</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.87294505396592</v>
+        <v>65.88502793215137</v>
       </c>
       <c r="D25" t="n">
-        <v>7.841632543704868</v>
+        <v>7.238999173787984</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.03618751766874</v>
+        <v>65.1126015938423</v>
       </c>
       <c r="D26" t="n">
-        <v>7.578019221817829</v>
+        <v>8.255907315737987</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.5798292528527</v>
+        <v>65.56784100558572</v>
       </c>
       <c r="D27" t="n">
-        <v>8.062985538345247</v>
+        <v>7.67131121545133</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.85820726566772</v>
+        <v>65.30744894283683</v>
       </c>
       <c r="D28" t="n">
-        <v>8.210227722866481</v>
+        <v>7.048481121614956</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.89745950614442</v>
+        <v>63.49132974270301</v>
       </c>
       <c r="D29" t="n">
-        <v>7.541737041246954</v>
+        <v>7.499681624054378</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.05606327396357</v>
+        <v>62.54356271285194</v>
       </c>
       <c r="D30" t="n">
-        <v>7.810079234221247</v>
+        <v>6.98298444634411</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.03931486848418</v>
+        <v>61.17538098672436</v>
       </c>
       <c r="D31" t="n">
-        <v>7.826271973150424</v>
+        <v>7.653979907508379</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.91477415669776</v>
+        <v>60.09383672537382</v>
       </c>
       <c r="D32" t="n">
-        <v>8.142595311642205</v>
+        <v>6.6886548169919</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.65553709961146</v>
+        <v>58.16011468655032</v>
       </c>
       <c r="D33" t="n">
-        <v>7.836205591160804</v>
+        <v>7.296307165636295</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.43402212291781</v>
+        <v>56.99892147374069</v>
       </c>
       <c r="D34" t="n">
-        <v>8.073021010789956</v>
+        <v>7.852299650832456</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.37639334935809</v>
+        <v>56.73805954699129</v>
       </c>
       <c r="D35" t="n">
-        <v>7.652952785378115</v>
+        <v>7.904183341353026</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.17777250948779</v>
+        <v>54.26330128570522</v>
       </c>
       <c r="D36" t="n">
-        <v>7.725751434919607</v>
+        <v>7.247556191662399</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.87586242997433</v>
+        <v>55.66234429088954</v>
       </c>
       <c r="D37" t="n">
-        <v>7.258444222468136</v>
+        <v>6.954618460109164</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.97843006529785</v>
+        <v>54.69501235389294</v>
       </c>
       <c r="D38" t="n">
-        <v>8.573978343976462</v>
+        <v>7.556919892869765</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.84257235388475</v>
+        <v>53.17022878505625</v>
       </c>
       <c r="D39" t="n">
-        <v>7.47548820425795</v>
+        <v>7.449557658100094</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.74455729689761</v>
+        <v>52.41224051956048</v>
       </c>
       <c r="D40" t="n">
-        <v>8.032623652598359</v>
+        <v>7.060675000559294</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.45772634584293</v>
+        <v>49.41733545737816</v>
       </c>
       <c r="D41" t="n">
-        <v>7.868962147694148</v>
+        <v>8.113723628793949</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.43943354342421</v>
+        <v>50.9702840055991</v>
       </c>
       <c r="D42" t="n">
-        <v>8.073796397360047</v>
+        <v>7.789755248660697</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.5772107476341</v>
+        <v>49.39536379187256</v>
       </c>
       <c r="D43" t="n">
-        <v>7.970166674184663</v>
+        <v>8.612269243924089</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.75015905458326</v>
+        <v>48.34034094588056</v>
       </c>
       <c r="D44" t="n">
-        <v>8.302708045997237</v>
+        <v>7.407979375661575</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.28774999794214</v>
+        <v>47.13064787337176</v>
       </c>
       <c r="D45" t="n">
-        <v>7.774101667680158</v>
+        <v>7.623401038294788</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.11268835757376</v>
+        <v>45.19703938759746</v>
       </c>
       <c r="D46" t="n">
-        <v>9.071689820141643</v>
+        <v>7.97922549017771</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.08817728899491</v>
+        <v>44.27155676045166</v>
       </c>
       <c r="D47" t="n">
-        <v>7.839592767605058</v>
+        <v>7.09046265647351</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.78875219046855</v>
+        <v>44.51533308307192</v>
       </c>
       <c r="D48" t="n">
-        <v>6.137577224036378</v>
+        <v>7.888332208550359</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.00767416843434</v>
+        <v>42.70152364076427</v>
       </c>
       <c r="D49" t="n">
-        <v>7.846810112838472</v>
+        <v>8.129688186025536</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.90960012288782</v>
+        <v>40.21060948438836</v>
       </c>
       <c r="D50" t="n">
-        <v>7.949528289590848</v>
+        <v>7.852186735476358</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.42180902147729</v>
+        <v>40.51938497727046</v>
       </c>
       <c r="D51" t="n">
-        <v>8.329404753969126</v>
+        <v>7.451555234771087</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.49207094318434</v>
+        <v>39.32616936668243</v>
       </c>
       <c r="D52" t="n">
-        <v>8.245955686870424</v>
+        <v>7.586791061084025</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.95723789257845</v>
+        <v>38.08512367605991</v>
       </c>
       <c r="D53" t="n">
-        <v>7.979904098680597</v>
+        <v>7.599501735383533</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.79872344806877</v>
+        <v>36.9354282692501</v>
       </c>
       <c r="D54" t="n">
-        <v>7.574295086348759</v>
+        <v>8.595966390193347</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.20933985345496</v>
+        <v>35.81130205363775</v>
       </c>
       <c r="D55" t="n">
-        <v>7.058243219073344</v>
+        <v>8.485964648050158</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.11622970213238</v>
+        <v>36.59510384360821</v>
       </c>
       <c r="D56" t="n">
-        <v>8.761739769345352</v>
+        <v>8.088184256869063</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.24089883605242</v>
+        <v>33.39210224166732</v>
       </c>
       <c r="D57" t="n">
-        <v>7.286980189592574</v>
+        <v>8.17883509191082</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.3315775129314</v>
+        <v>33.38000993058847</v>
       </c>
       <c r="D58" t="n">
-        <v>7.968394085662085</v>
+        <v>7.634090921498317</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.31814752886431</v>
+        <v>32.8983490600618</v>
       </c>
       <c r="D59" t="n">
-        <v>7.782649940463053</v>
+        <v>6.839709229291871</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.48294014673917</v>
+        <v>32.24290279223644</v>
       </c>
       <c r="D60" t="n">
-        <v>7.939624957456521</v>
+        <v>7.90237510099561</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.91486944460197</v>
+        <v>31.42753671184554</v>
       </c>
       <c r="D61" t="n">
-        <v>8.601515351048008</v>
+        <v>8.932876274075664</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.12926809100124</v>
+        <v>29.21012170863953</v>
       </c>
       <c r="D62" t="n">
-        <v>7.329125635522434</v>
+        <v>7.749268232626625</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.3371054527889</v>
+        <v>29.17763043190995</v>
       </c>
       <c r="D63" t="n">
-        <v>7.452378301945932</v>
+        <v>7.895363722762422</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.52967425938278</v>
+        <v>27.96824993104824</v>
       </c>
       <c r="D64" t="n">
-        <v>8.114293604210726</v>
+        <v>7.509322951753268</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.13508205887399</v>
+        <v>27.29836711064438</v>
       </c>
       <c r="D65" t="n">
-        <v>8.55771866409258</v>
+        <v>7.52067381386503</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.45812352678386</v>
+        <v>24.34201918818322</v>
       </c>
       <c r="D66" t="n">
-        <v>9.310961331546617</v>
+        <v>8.107216355351062</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.33890092694699</v>
+        <v>25.81816322971031</v>
       </c>
       <c r="D67" t="n">
-        <v>8.905724120141047</v>
+        <v>7.376337000960871</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.66449091074263</v>
+        <v>23.07887258353955</v>
       </c>
       <c r="D68" t="n">
-        <v>7.613510199914979</v>
+        <v>8.222549538340862</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.79717498873726</v>
+        <v>23.99660247022554</v>
       </c>
       <c r="D69" t="n">
-        <v>8.003594674380031</v>
+        <v>7.894979694623475</v>
       </c>
     </row>
   </sheetData>
